--- a/data/trans_orig/P34D2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34D2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF4A6A44-BFD8-4F32-B2EA-E0F49C3F2297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{480ED674-4389-486B-BCD3-9CB190BEEC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E6DAE17-387D-4877-9F43-B42E62B41F27}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A32AB97D-D1A4-4CF9-94F4-181A933FA3D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -104,19 +104,19 @@
     <t>3,35%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
   </si>
   <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
   </si>
   <si>
     <t>4,17%</t>
@@ -125,31 +125,31 @@
     <t>2,64%</t>
   </si>
   <si>
-    <t>6,55%</t>
+    <t>6,43%</t>
   </si>
   <si>
     <t>96,65%</t>
   </si>
   <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>93,27%</t>
   </si>
   <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>95,83%</t>
   </si>
   <si>
-    <t>93,45%</t>
+    <t>93,57%</t>
   </si>
   <si>
     <t>97,36%</t>
@@ -161,103 +161,103 @@
     <t>2,5%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>16,27%</t>
+    <t>15,44%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
   </si>
   <si>
     <t>97,5%</t>
   </si>
   <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>96,82%</t>
   </si>
   <si>
-    <t>83,73%</t>
+    <t>84,56%</t>
   </si>
   <si>
     <t>97,26%</t>
   </si>
   <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
   </si>
   <si>
     <t>97,03%</t>
   </si>
   <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
   </si>
   <si>
     <t>94,99%</t>
   </si>
   <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>96,46%</t>
   </si>
   <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -672,7 +672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DDFFF2-F90A-4E92-86B2-3C3542872AB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2111DE3B-887B-49BB-9EF9-4163EBB29C9A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1339,7 +1339,7 @@
         <v>750</v>
       </c>
       <c r="N14" s="7">
-        <v>861785</v>
+        <v>861784</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>71</v>
@@ -1390,7 +1390,7 @@
         <v>780</v>
       </c>
       <c r="N15" s="7">
-        <v>893395</v>
+        <v>893394</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>17</v>

--- a/data/trans_orig/P34D2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34D2_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{480ED674-4389-486B-BCD3-9CB190BEEC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6B5447F-6695-4116-AF7D-EBABE1FE6215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A32AB97D-D1A4-4CF9-94F4-181A933FA3D7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44D4278F-8BC2-4B1D-A36D-76526D76CC5C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -672,7 +672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2111DE3B-887B-49BB-9EF9-4163EBB29C9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3F87FD-0CC3-411B-8809-DD98F770FDB7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P34D2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34D2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6B5447F-6695-4116-AF7D-EBABE1FE6215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF02C153-FE99-4310-AB86-0AC56CE68212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44D4278F-8BC2-4B1D-A36D-76526D76CC5C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BEF6450-D072-4DD1-93E8-D7589EA00CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="75">
-  <si>
-    <t>Población según el número de veces al día que realizan alguna actividad física intensa o vigorosa en 2023 (Tasa respuesta: 8,94%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="114">
+  <si>
+    <t>Población según el número de veces al día que realizan alguna actividad física intensa o vigorosa en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,190 +74,307 @@
     <t>0%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -672,8 +789,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3F87FD-0CC3-411B-8809-DD98F770FDB7}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2981CD11-D8DC-4AB1-BF9A-C87D5926FAEB}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -862,13 +979,13 @@
         <v>14551</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -877,478 +994,476 @@
         <v>44664</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>655</v>
+      </c>
+      <c r="D6" s="7">
+        <v>511360</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1414</v>
+      </c>
+      <c r="I6" s="7">
+        <v>818640</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2069</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1330000</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="7">
+        <v>690</v>
+      </c>
+      <c r="D7" s="7">
+        <v>541473</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1426</v>
+      </c>
+      <c r="I7" s="7">
+        <v>833191</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2116</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1374664</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7">
+        <v>14839</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="7">
-        <v>30113</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="7">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7">
-        <v>14551</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="7">
-        <v>47</v>
-      </c>
-      <c r="N6" s="7">
-        <v>44664</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="C7" s="7">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7">
-        <v>14839</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="G8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="7">
+        <v>10</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9553</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="7">
         <v>23</v>
       </c>
-      <c r="H7" s="7">
-        <v>10</v>
-      </c>
-      <c r="I7" s="7">
-        <v>9553</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="7">
-        <v>23</v>
-      </c>
-      <c r="N7" s="7">
+      <c r="N8" s="7">
         <v>24392</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7">
-        <v>315</v>
-      </c>
-      <c r="D8" s="7">
-        <v>428167</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="7">
-        <v>142</v>
-      </c>
-      <c r="I8" s="7">
-        <v>132486</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="7">
-        <v>457</v>
-      </c>
-      <c r="N8" s="7">
-        <v>560652</v>
-      </c>
       <c r="O8" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
+      <c r="B9" s="5">
+        <v>1</v>
       </c>
       <c r="C9" s="7">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D9" s="7">
-        <v>443006</v>
+        <v>428167</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H9" s="7">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="I9" s="7">
-        <v>142039</v>
+        <v>132485</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M9" s="7">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="N9" s="7">
-        <v>585044</v>
+        <v>560652</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>1664</v>
       </c>
       <c r="D10" s="7">
-        <v>4261</v>
+        <v>1719016</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>2767</v>
       </c>
       <c r="I10" s="7">
-        <v>2956</v>
+        <v>2106075</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>4431</v>
       </c>
       <c r="N10" s="7">
-        <v>7218</v>
+        <v>3825092</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="5">
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1992</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2162022</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2919</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2248114</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="7">
+        <v>4911</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4410136</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4261</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2956</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="7">
+        <v>7</v>
+      </c>
+      <c r="N12" s="7">
+        <v>7218</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C13" s="7">
         <v>141</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D13" s="7">
         <v>166421</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="E13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="7">
         <v>105</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I13" s="7">
         <v>90048</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="7">
         <v>246</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N13" s="7">
         <v>256469</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7">
-        <v>146</v>
-      </c>
-      <c r="D12" s="7">
-        <v>170682</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="7">
-        <v>107</v>
-      </c>
-      <c r="I12" s="7">
-        <v>93004</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="7">
-        <v>253</v>
-      </c>
-      <c r="N12" s="7">
-        <v>263687</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2</v>
-      </c>
-      <c r="C13" s="7">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7">
-        <v>19100</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="7">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7">
-        <v>12510</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M13" s="7">
-        <v>30</v>
-      </c>
-      <c r="N13" s="7">
-        <v>31610</v>
-      </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="7">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="D14" s="7">
-        <v>624701</v>
+        <v>502357</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>259</v>
+        <v>897</v>
       </c>
       <c r="I14" s="7">
-        <v>237084</v>
+        <v>620882</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>750</v>
+        <v>1432</v>
       </c>
       <c r="N14" s="7">
-        <v>861784</v>
+        <v>1123239</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1357,66 +1472,272 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>509</v>
+        <v>681</v>
       </c>
       <c r="D15" s="7">
-        <v>643801</v>
+        <v>673039</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H15" s="7">
-        <v>271</v>
+        <v>1004</v>
       </c>
       <c r="I15" s="7">
-        <v>249594</v>
+        <v>713886</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M15" s="7">
-        <v>780</v>
+        <v>1685</v>
       </c>
       <c r="N15" s="7">
-        <v>893394</v>
+        <v>1386926</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>74</v>
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7">
+        <v>19100</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="7">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7">
+        <v>12510</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M16" s="7">
+        <v>30</v>
+      </c>
+      <c r="N16" s="7">
+        <v>31610</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>491</v>
+      </c>
+      <c r="D17" s="7">
+        <v>624701</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>259</v>
+      </c>
+      <c r="I17" s="7">
+        <v>237084</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="7">
+        <v>750</v>
+      </c>
+      <c r="N17" s="7">
+        <v>861785</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2854</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2732733</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5078</v>
+      </c>
+      <c r="I18" s="7">
+        <v>3545597</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M18" s="7">
+        <v>7932</v>
+      </c>
+      <c r="N18" s="7">
+        <v>6278330</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3363</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3376534</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5349</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3795191</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="7">
+        <v>8712</v>
+      </c>
+      <c r="N19" s="7">
+        <v>7171725</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
